--- a/ビブ確認/第67回東医体スキー競技スタートリスト_大学別.xlsx
+++ b/ビブ確認/第67回東医体スキー競技スタートリスト_大学別.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msotohoku-my.sharepoint.com/personal/hayashi_ayano_s1_mso_tohoku_ac_jp/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashiayano/Desktop/東医体/ビブ確認/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1DC2776-2FF7-574F-BBFD-C6FC3418F97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123853E3-BD50-D641-8A9D-F00385B2FD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="19420" windowHeight="10300" firstSheet="3" xr2:uid="{9E952FAF-5400-4261-9FB3-E20B511E3042}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{9E952FAF-5400-4261-9FB3-E20B511E3042}"/>
   </bookViews>
   <sheets>
     <sheet name="男子SG" sheetId="26" r:id="rId1"/>
@@ -5382,16 +5382,16 @@
   </sheetPr>
   <dimension ref="A1:F224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="71" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="L216" sqref="L216"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A205" zoomScale="60" zoomScaleNormal="71" workbookViewId="0">
+      <selection sqref="A1:F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
@@ -9881,6 +9881,15 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="7" manualBreakCount="7">
+    <brk id="35" max="16383" man="1"/>
+    <brk id="63" max="16383" man="1"/>
+    <brk id="93" max="16383" man="1"/>
+    <brk id="128" max="16383" man="1"/>
+    <brk id="147" max="16383" man="1"/>
+    <brk id="182" max="16383" man="1"/>
+    <brk id="214" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -27524,8 +27533,8 @@
   </sheetPr>
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J140" sqref="J140"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -30903,7 +30912,10 @@
   </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="36" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -30911,8 +30923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7990E07-11DF-4868-96C8-8A342B5DA1F6}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="61" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A27" zoomScale="60" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="G47" sqref="A1:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -32014,6 +32026,9 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="31" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -32021,8 +32036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31599E1-9D1A-476D-8D66-424E347C9E3D}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I93" sqref="I93"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A60" zoomScale="60" zoomScaleNormal="56" workbookViewId="0">
+      <selection sqref="A1:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -34001,7 +34016,10 @@
   </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="36" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
